--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H2">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I2">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J2">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.518772895381</v>
+        <v>1.6027375</v>
       </c>
       <c r="N2">
-        <v>1.518772895381</v>
+        <v>3.205475</v>
       </c>
       <c r="O2">
-        <v>0.1808224529738624</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P2">
-        <v>0.1808224529738624</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q2">
-        <v>15.68046353570786</v>
+        <v>18.70173484725</v>
       </c>
       <c r="R2">
-        <v>15.68046353570786</v>
+        <v>74.80693938899999</v>
       </c>
       <c r="S2">
-        <v>0.02417385484445695</v>
+        <v>0.02528492979306226</v>
       </c>
       <c r="T2">
-        <v>0.02417385484445695</v>
+        <v>0.01633808316322002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H3">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I3">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J3">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.264357165173292</v>
+        <v>0.330031</v>
       </c>
       <c r="N3">
-        <v>0.264357165173292</v>
+        <v>0.990093</v>
       </c>
       <c r="O3">
-        <v>0.03147390318409627</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P3">
-        <v>0.03147390318409627</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q3">
-        <v>2.72933688868804</v>
+        <v>3.85100632722</v>
       </c>
       <c r="R3">
-        <v>2.72933688868804</v>
+        <v>23.10603796332</v>
       </c>
       <c r="S3">
-        <v>0.004207694091346133</v>
+        <v>0.00520659850071152</v>
       </c>
       <c r="T3">
-        <v>0.004207694091346133</v>
+        <v>0.005046435168991181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H4">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I4">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J4">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.39568996299457</v>
+        <v>0.147963</v>
       </c>
       <c r="N4">
-        <v>1.39568996299457</v>
+        <v>0.443889</v>
       </c>
       <c r="O4">
-        <v>0.1661684136365676</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P4">
-        <v>0.1661684136365676</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q4">
-        <v>14.40970248971931</v>
+        <v>1.72652402106</v>
       </c>
       <c r="R4">
-        <v>14.40970248971931</v>
+        <v>10.35914412636</v>
       </c>
       <c r="S4">
-        <v>0.02221478054810321</v>
+        <v>0.002334277488965517</v>
       </c>
       <c r="T4">
-        <v>0.02221478054810321</v>
+        <v>0.002262471364536792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H5">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I5">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J5">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.22042946346333</v>
+        <v>0.201726</v>
       </c>
       <c r="N5">
-        <v>5.22042946346333</v>
+        <v>0.605178</v>
       </c>
       <c r="O5">
-        <v>0.6215352302054737</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P5">
-        <v>0.6215352302054737</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q5">
-        <v>53.8979554425328</v>
+        <v>2.35386403812</v>
       </c>
       <c r="R5">
-        <v>53.8979554425328</v>
+        <v>14.12318422872</v>
       </c>
       <c r="S5">
-        <v>0.08309201754870058</v>
+        <v>0.00318244737359379</v>
       </c>
       <c r="T5">
-        <v>0.08309201754870058</v>
+        <v>0.003084550181346343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.4613481481237</v>
+        <v>11.66862</v>
       </c>
       <c r="H6">
-        <v>13.4613481481237</v>
+        <v>23.33724</v>
       </c>
       <c r="I6">
-        <v>0.1743074907792694</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J6">
-        <v>0.1743074907792694</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.518772895381</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N6">
-        <v>1.518772895381</v>
+        <v>4.444127</v>
       </c>
       <c r="O6">
-        <v>0.1808224529738624</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P6">
-        <v>0.1808224529738624</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q6">
-        <v>20.44473070265749</v>
+        <v>17.28560973158</v>
       </c>
       <c r="R6">
-        <v>20.44473070265749</v>
+        <v>103.71365838948</v>
       </c>
       <c r="S6">
-        <v>0.03151870805442639</v>
+        <v>0.02337031468273343</v>
       </c>
       <c r="T6">
-        <v>0.03151870805442639</v>
+        <v>0.02265140627018196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.4613481481237</v>
+        <v>11.66862</v>
       </c>
       <c r="H7">
-        <v>13.4613481481237</v>
+        <v>23.33724</v>
       </c>
       <c r="I7">
-        <v>0.1743074907792694</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J7">
-        <v>0.1743074907792694</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.264357165173292</v>
+        <v>5.226314</v>
       </c>
       <c r="N7">
-        <v>0.264357165173292</v>
+        <v>10.452628</v>
       </c>
       <c r="O7">
-        <v>0.03147390318409627</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P7">
-        <v>0.03147390318409627</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q7">
-        <v>3.558603835848725</v>
+        <v>60.98387206668</v>
       </c>
       <c r="R7">
-        <v>3.558603835848725</v>
+        <v>243.93548826672</v>
       </c>
       <c r="S7">
-        <v>0.005486137089049479</v>
+        <v>0.08245079594537369</v>
       </c>
       <c r="T7">
-        <v>0.005486137089049479</v>
+        <v>0.05327631803030822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H8">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I8">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J8">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.39568996299457</v>
+        <v>1.6027375</v>
       </c>
       <c r="N8">
-        <v>1.39568996299457</v>
+        <v>3.205475</v>
       </c>
       <c r="O8">
-        <v>0.1661684136365676</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P8">
-        <v>0.1661684136365676</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q8">
-        <v>18.78786849871179</v>
+        <v>24.23498305258333</v>
       </c>
       <c r="R8">
-        <v>18.78786849871179</v>
+        <v>145.4098983155</v>
       </c>
       <c r="S8">
-        <v>0.02896439922776183</v>
+        <v>0.03276593588913648</v>
       </c>
       <c r="T8">
-        <v>0.02896439922776183</v>
+        <v>0.03175800307883395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H9">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I9">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J9">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.22042946346333</v>
+        <v>0.330031</v>
       </c>
       <c r="N9">
-        <v>5.22042946346333</v>
+        <v>0.990093</v>
       </c>
       <c r="O9">
-        <v>0.6215352302054737</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P9">
-        <v>0.6215352302054737</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q9">
-        <v>70.2740184904025</v>
+        <v>4.990396550793333</v>
       </c>
       <c r="R9">
-        <v>70.2740184904025</v>
+        <v>44.91356895714</v>
       </c>
       <c r="S9">
-        <v>0.1083382464080317</v>
+        <v>0.006747065310088273</v>
       </c>
       <c r="T9">
-        <v>0.1083382464080317</v>
+        <v>0.009809272117964403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.7344657321127</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H10">
-        <v>14.7344657321127</v>
+        <v>45.36298</v>
       </c>
       <c r="I10">
-        <v>0.1907927587546779</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J10">
-        <v>0.1907927587546779</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.518772895381</v>
+        <v>0.147963</v>
       </c>
       <c r="N10">
-        <v>1.518772895381</v>
+        <v>0.443889</v>
       </c>
       <c r="O10">
-        <v>0.1808224529738624</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P10">
-        <v>0.1808224529738624</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q10">
-        <v>22.37830718185293</v>
+        <v>2.23734753658</v>
       </c>
       <c r="R10">
-        <v>22.37830718185293</v>
+        <v>20.13612782922</v>
       </c>
       <c r="S10">
-        <v>0.03449961464767123</v>
+        <v>0.003024915915403677</v>
       </c>
       <c r="T10">
-        <v>0.03449961464767123</v>
+        <v>0.004397796965710393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.7344657321127</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H11">
-        <v>14.7344657321127</v>
+        <v>45.36298</v>
       </c>
       <c r="I11">
-        <v>0.1907927587546779</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J11">
-        <v>0.1907927587546779</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.264357165173292</v>
+        <v>0.201726</v>
       </c>
       <c r="N11">
-        <v>0.264357165173292</v>
+        <v>0.605178</v>
       </c>
       <c r="O11">
-        <v>0.03147390318409627</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P11">
-        <v>0.03147390318409627</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q11">
-        <v>3.895161591284328</v>
+        <v>3.05029750116</v>
       </c>
       <c r="R11">
-        <v>3.895161591284328</v>
+        <v>27.45267751044</v>
       </c>
       <c r="S11">
-        <v>0.006004992817271369</v>
+        <v>0.004124032278006813</v>
       </c>
       <c r="T11">
-        <v>0.006004992817271369</v>
+        <v>0.005995755632860207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.7344657321127</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H12">
-        <v>14.7344657321127</v>
+        <v>45.36298</v>
       </c>
       <c r="I12">
-        <v>0.1907927587546779</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J12">
-        <v>0.1907927587546779</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.39568996299457</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N12">
-        <v>1.39568996299457</v>
+        <v>4.444127</v>
       </c>
       <c r="O12">
-        <v>0.1661684136365676</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P12">
-        <v>0.1661684136365676</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q12">
-        <v>20.56474593239713</v>
+        <v>22.39987157982889</v>
       </c>
       <c r="R12">
-        <v>20.56474593239713</v>
+        <v>201.59884421846</v>
       </c>
       <c r="S12">
-        <v>0.03170373005560918</v>
+        <v>0.0302848470955018</v>
       </c>
       <c r="T12">
-        <v>0.03170373005560918</v>
+        <v>0.04402985484170961</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.7344657321127</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H13">
-        <v>14.7344657321127</v>
+        <v>45.36298</v>
       </c>
       <c r="I13">
-        <v>0.1907927587546779</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J13">
-        <v>0.1907927587546779</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.22042946346333</v>
+        <v>5.226314</v>
       </c>
       <c r="N13">
-        <v>5.22042946346333</v>
+        <v>10.452628</v>
       </c>
       <c r="O13">
-        <v>0.6215352302054737</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P13">
-        <v>0.6215352302054737</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q13">
-        <v>76.92023903631193</v>
+        <v>79.02705915190667</v>
       </c>
       <c r="R13">
-        <v>76.92023903631193</v>
+        <v>474.16235491144</v>
       </c>
       <c r="S13">
-        <v>0.1185844212341262</v>
+        <v>0.1068453626751083</v>
       </c>
       <c r="T13">
-        <v>0.1185844212341262</v>
+        <v>0.1035586277247229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.2034646576167</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H14">
-        <v>23.2034646576167</v>
+        <v>45.903004</v>
       </c>
       <c r="I14">
-        <v>0.300455619849515</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J14">
-        <v>0.300455619849515</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.518772895381</v>
+        <v>1.6027375</v>
       </c>
       <c r="N14">
-        <v>1.518772895381</v>
+        <v>3.205475</v>
       </c>
       <c r="O14">
-        <v>0.1808224529738624</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P14">
-        <v>0.1808224529738624</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q14">
-        <v>35.24079320091922</v>
+        <v>24.52348862448333</v>
       </c>
       <c r="R14">
-        <v>35.24079320091922</v>
+        <v>147.1409317469</v>
       </c>
       <c r="S14">
-        <v>0.0543291221909716</v>
+        <v>0.03315599826516634</v>
       </c>
       <c r="T14">
-        <v>0.0543291221909716</v>
+        <v>0.03213606650973386</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.2034646576167</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H15">
-        <v>23.2034646576167</v>
+        <v>45.903004</v>
       </c>
       <c r="I15">
-        <v>0.300455619849515</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J15">
-        <v>0.300455619849515</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.264357165173292</v>
+        <v>0.330031</v>
       </c>
       <c r="N15">
-        <v>0.264357165173292</v>
+        <v>0.990093</v>
       </c>
       <c r="O15">
-        <v>0.03147390318409627</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P15">
-        <v>0.03147390318409627</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q15">
-        <v>6.134002139086221</v>
+        <v>5.049804771041333</v>
       </c>
       <c r="R15">
-        <v>6.134002139086221</v>
+        <v>45.44824293937199</v>
       </c>
       <c r="S15">
-        <v>0.009456511090261268</v>
+        <v>0.006827385809248934</v>
       </c>
       <c r="T15">
-        <v>0.009456511090261268</v>
+        <v>0.009926046685381084</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.2034646576167</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H16">
-        <v>23.2034646576167</v>
+        <v>45.903004</v>
       </c>
       <c r="I16">
-        <v>0.300455619849515</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J16">
-        <v>0.300455619849515</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.39568996299457</v>
+        <v>0.147963</v>
       </c>
       <c r="N16">
-        <v>1.39568996299457</v>
+        <v>0.443889</v>
       </c>
       <c r="O16">
-        <v>0.1661684136365676</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P16">
-        <v>0.1661684136365676</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q16">
-        <v>32.38484272933486</v>
+        <v>2.263982060284</v>
       </c>
       <c r="R16">
-        <v>32.38484272933486</v>
+        <v>20.375838542556</v>
       </c>
       <c r="S16">
-        <v>0.04992623371858551</v>
+        <v>0.003060926053897664</v>
       </c>
       <c r="T16">
-        <v>0.04992623371858551</v>
+        <v>0.00445015057891241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.2034646576167</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H17">
-        <v>23.2034646576167</v>
+        <v>45.903004</v>
       </c>
       <c r="I17">
-        <v>0.300455619849515</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J17">
-        <v>0.300455619849515</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>5.22042946346333</v>
+        <v>0.201726</v>
       </c>
       <c r="N17">
-        <v>5.22042946346333</v>
+        <v>0.605178</v>
       </c>
       <c r="O17">
-        <v>0.6215352302054737</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P17">
-        <v>0.6215352302054737</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q17">
-        <v>121.1320505530523</v>
+        <v>3.086609794968</v>
       </c>
       <c r="R17">
-        <v>121.1320505530523</v>
+        <v>27.779488154712</v>
       </c>
       <c r="S17">
-        <v>0.1867437528496966</v>
+        <v>0.004173126857042369</v>
       </c>
       <c r="T17">
-        <v>0.1867437528496966</v>
+        <v>0.006067132159267416</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.76119141246142</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H18">
-        <v>7.76119141246142</v>
+        <v>45.903004</v>
       </c>
       <c r="I18">
-        <v>0.1004976459770359</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J18">
-        <v>0.1004976459770359</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.518772895381</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N18">
-        <v>1.518772895381</v>
+        <v>4.444127</v>
       </c>
       <c r="O18">
-        <v>0.1808224529738624</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P18">
-        <v>0.1808224529738624</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q18">
-        <v>11.78748715311018</v>
+        <v>22.66653105083422</v>
       </c>
       <c r="R18">
-        <v>11.78748715311018</v>
+        <v>203.998779457508</v>
       </c>
       <c r="S18">
-        <v>0.01817223086366645</v>
+        <v>0.03064537332785914</v>
       </c>
       <c r="T18">
-        <v>0.01817223086366645</v>
+        <v>0.04455400864137266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.76119141246142</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H19">
-        <v>7.76119141246142</v>
+        <v>45.903004</v>
       </c>
       <c r="I19">
-        <v>0.1004976459770359</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J19">
-        <v>0.1004976459770359</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.264357165173292</v>
+        <v>5.226314</v>
       </c>
       <c r="N19">
-        <v>0.264357165173292</v>
+        <v>10.452628</v>
       </c>
       <c r="O19">
-        <v>0.03147390318409627</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P19">
-        <v>0.03147390318409627</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q19">
-        <v>2.051726560165599</v>
+        <v>79.96783748241866</v>
       </c>
       <c r="R19">
-        <v>2.051726560165599</v>
+        <v>479.807024894512</v>
       </c>
       <c r="S19">
-        <v>0.003163053179710811</v>
+        <v>0.1081173042480223</v>
       </c>
       <c r="T19">
-        <v>0.003163053179710811</v>
+        <v>0.1047914423321057</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.76119141246142</v>
+        <v>24.037621</v>
       </c>
       <c r="H20">
-        <v>7.76119141246142</v>
+        <v>72.112863</v>
       </c>
       <c r="I20">
-        <v>0.1004976459770359</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J20">
-        <v>0.1004976459770359</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.39568996299457</v>
+        <v>1.6027375</v>
       </c>
       <c r="N20">
-        <v>1.39568996299457</v>
+        <v>3.205475</v>
       </c>
       <c r="O20">
-        <v>0.1661684136365676</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P20">
-        <v>0.1661684136365676</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q20">
-        <v>10.83221695525205</v>
+        <v>38.5259965874875</v>
       </c>
       <c r="R20">
-        <v>10.83221695525205</v>
+        <v>231.155979524925</v>
       </c>
       <c r="S20">
-        <v>0.01669953440621344</v>
+        <v>0.05208752700638455</v>
       </c>
       <c r="T20">
-        <v>0.01669953440621344</v>
+        <v>0.05048523102268703</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.76119141246142</v>
+        <v>24.037621</v>
       </c>
       <c r="H21">
-        <v>7.76119141246142</v>
+        <v>72.112863</v>
       </c>
       <c r="I21">
-        <v>0.1004976459770359</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J21">
-        <v>0.1004976459770359</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.22042946346333</v>
+        <v>0.330031</v>
       </c>
       <c r="N21">
-        <v>5.22042946346333</v>
+        <v>0.990093</v>
       </c>
       <c r="O21">
-        <v>0.6215352302054737</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P21">
-        <v>0.6215352302054737</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q21">
-        <v>40.51675232119218</v>
+        <v>7.933160096251001</v>
       </c>
       <c r="R21">
-        <v>40.51675232119218</v>
+        <v>71.39844086625901</v>
       </c>
       <c r="S21">
-        <v>0.06246282752744523</v>
+        <v>0.01072571062038799</v>
       </c>
       <c r="T21">
-        <v>0.06246282752744523</v>
+        <v>0.01559365580419291</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.74269475726636</v>
+        <v>24.037621</v>
       </c>
       <c r="H22">
-        <v>7.74269475726636</v>
+        <v>72.112863</v>
       </c>
       <c r="I22">
-        <v>0.1002581376068948</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J22">
-        <v>0.1002581376068948</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>1.518772895381</v>
+        <v>0.147963</v>
       </c>
       <c r="N22">
-        <v>1.518772895381</v>
+        <v>0.443889</v>
       </c>
       <c r="O22">
-        <v>0.1808224529738624</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P22">
-        <v>0.1808224529738624</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q22">
-        <v>11.75939493454472</v>
+        <v>3.556678516023</v>
       </c>
       <c r="R22">
-        <v>11.75939493454472</v>
+        <v>32.010106644207</v>
       </c>
       <c r="S22">
-        <v>0.01812892237266975</v>
+        <v>0.004808664399782046</v>
       </c>
       <c r="T22">
-        <v>0.01812892237266975</v>
+        <v>0.006991113240137428</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.74269475726636</v>
+        <v>24.037621</v>
       </c>
       <c r="H23">
-        <v>7.74269475726636</v>
+        <v>72.112863</v>
       </c>
       <c r="I23">
-        <v>0.1002581376068948</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J23">
-        <v>0.1002581376068948</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.264357165173292</v>
+        <v>0.201726</v>
       </c>
       <c r="N23">
-        <v>0.264357165173292</v>
+        <v>0.605178</v>
       </c>
       <c r="O23">
-        <v>0.03147390318409627</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P23">
-        <v>0.03147390318409627</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q23">
-        <v>2.046836836833045</v>
+        <v>4.849013133846</v>
       </c>
       <c r="R23">
-        <v>2.046836836833045</v>
+        <v>43.641118204614</v>
       </c>
       <c r="S23">
-        <v>0.003155514916457207</v>
+        <v>0.006555913537238587</v>
       </c>
       <c r="T23">
-        <v>0.003155514916457207</v>
+        <v>0.009531364661976054</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.74269475726636</v>
+        <v>24.037621</v>
       </c>
       <c r="H24">
-        <v>7.74269475726636</v>
+        <v>72.112863</v>
       </c>
       <c r="I24">
-        <v>0.1002581376068948</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J24">
-        <v>0.1002581376068948</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.39568996299457</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N24">
-        <v>1.39568996299457</v>
+        <v>4.444127</v>
       </c>
       <c r="O24">
-        <v>0.1661684136365676</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P24">
-        <v>0.1661684136365676</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q24">
-        <v>10.80640135924734</v>
+        <v>35.60874683395567</v>
       </c>
       <c r="R24">
-        <v>10.80640135924734</v>
+        <v>320.478721505601</v>
       </c>
       <c r="S24">
-        <v>0.0166597356802944</v>
+        <v>0.04814337659417148</v>
       </c>
       <c r="T24">
-        <v>0.0166597356802944</v>
+        <v>0.06999361351723568</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.74269475726636</v>
+        <v>24.037621</v>
       </c>
       <c r="H25">
-        <v>7.74269475726636</v>
+        <v>72.112863</v>
       </c>
       <c r="I25">
-        <v>0.1002581376068948</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J25">
-        <v>0.1002581376068948</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.22042946346333</v>
+        <v>5.226314</v>
       </c>
       <c r="N25">
-        <v>5.22042946346333</v>
+        <v>10.452628</v>
       </c>
       <c r="O25">
-        <v>0.6215352302054737</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P25">
-        <v>0.6215352302054737</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q25">
-        <v>40.42019183743636</v>
+        <v>125.628155158994</v>
       </c>
       <c r="R25">
-        <v>40.42019183743636</v>
+        <v>753.7689309539641</v>
       </c>
       <c r="S25">
-        <v>0.06231396463747339</v>
+        <v>0.1698505036656631</v>
       </c>
       <c r="T25">
-        <v>0.06231396463747339</v>
+        <v>0.1646256293916525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.323066666666668</v>
+      </c>
+      <c r="H26">
+        <v>24.9692</v>
+      </c>
+      <c r="I26">
+        <v>0.101164940675831</v>
+      </c>
+      <c r="J26">
+        <v>0.1098381684864154</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6027375</v>
+      </c>
+      <c r="N26">
+        <v>3.205475</v>
+      </c>
+      <c r="O26">
+        <v>0.1782771149667683</v>
+      </c>
+      <c r="P26">
+        <v>0.1591486486285207</v>
+      </c>
+      <c r="Q26">
+        <v>13.33969106166667</v>
+      </c>
+      <c r="R26">
+        <v>80.03814636999999</v>
+      </c>
+      <c r="S26">
+        <v>0.01803539375947142</v>
+      </c>
+      <c r="T26">
+        <v>0.01748059608244478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.323066666666668</v>
+      </c>
+      <c r="H27">
+        <v>24.9692</v>
+      </c>
+      <c r="I27">
+        <v>0.101164940675831</v>
+      </c>
+      <c r="J27">
+        <v>0.1098381684864154</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.330031</v>
+      </c>
+      <c r="N27">
+        <v>0.990093</v>
+      </c>
+      <c r="O27">
+        <v>0.03671030005200323</v>
+      </c>
+      <c r="P27">
+        <v>0.04915713364370582</v>
+      </c>
+      <c r="Q27">
+        <v>2.746870015066667</v>
+      </c>
+      <c r="R27">
+        <v>24.7218301356</v>
+      </c>
+      <c r="S27">
+        <v>0.003713795326952861</v>
+      </c>
+      <c r="T27">
+        <v>0.005399329527466599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.323066666666668</v>
+      </c>
+      <c r="H28">
+        <v>24.9692</v>
+      </c>
+      <c r="I28">
+        <v>0.101164940675831</v>
+      </c>
+      <c r="J28">
+        <v>0.1098381684864154</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.147963</v>
+      </c>
+      <c r="N28">
+        <v>0.443889</v>
+      </c>
+      <c r="O28">
+        <v>0.01645835126577368</v>
+      </c>
+      <c r="P28">
+        <v>0.02203864777952266</v>
+      </c>
+      <c r="Q28">
+        <v>1.2315059132</v>
+      </c>
+      <c r="R28">
+        <v>11.0835532188</v>
+      </c>
+      <c r="S28">
+        <v>0.001665008129423982</v>
+      </c>
+      <c r="T28">
+        <v>0.002420684708019975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.323066666666668</v>
+      </c>
+      <c r="H29">
+        <v>24.9692</v>
+      </c>
+      <c r="I29">
+        <v>0.101164940675831</v>
+      </c>
+      <c r="J29">
+        <v>0.1098381684864154</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.201726</v>
+      </c>
+      <c r="N29">
+        <v>0.605178</v>
+      </c>
+      <c r="O29">
+        <v>0.02243856482660842</v>
+      </c>
+      <c r="P29">
+        <v>0.03004648636464514</v>
+      </c>
+      <c r="Q29">
+        <v>1.6789789464</v>
+      </c>
+      <c r="R29">
+        <v>15.1108105176</v>
+      </c>
+      <c r="S29">
+        <v>0.002269996079534628</v>
+      </c>
+      <c r="T29">
+        <v>0.003300251031744676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.323066666666668</v>
+      </c>
+      <c r="H30">
+        <v>24.9692</v>
+      </c>
+      <c r="I30">
+        <v>0.101164940675831</v>
+      </c>
+      <c r="J30">
+        <v>0.1098381684864154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.481375666666667</v>
+      </c>
+      <c r="N30">
+        <v>4.444127</v>
+      </c>
+      <c r="O30">
+        <v>0.1647776881961684</v>
+      </c>
+      <c r="P30">
+        <v>0.2206464896414795</v>
+      </c>
+      <c r="Q30">
+        <v>12.32958843204445</v>
+      </c>
+      <c r="R30">
+        <v>110.9662958884</v>
+      </c>
+      <c r="S30">
+        <v>0.01666972505106595</v>
+      </c>
+      <c r="T30">
+        <v>0.02423540630517694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.323066666666668</v>
+      </c>
+      <c r="H31">
+        <v>24.9692</v>
+      </c>
+      <c r="I31">
+        <v>0.101164940675831</v>
+      </c>
+      <c r="J31">
+        <v>0.1098381684864154</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.226314</v>
+      </c>
+      <c r="N31">
+        <v>10.452628</v>
+      </c>
+      <c r="O31">
+        <v>0.5813379806926779</v>
+      </c>
+      <c r="P31">
+        <v>0.5189625939421262</v>
+      </c>
+      <c r="Q31">
+        <v>43.49895984293334</v>
+      </c>
+      <c r="R31">
+        <v>260.9937590576</v>
+      </c>
+      <c r="S31">
+        <v>0.05881102232938214</v>
+      </c>
+      <c r="T31">
+        <v>0.05700190083156244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7.8209415</v>
+      </c>
+      <c r="H32">
+        <v>15.641883</v>
+      </c>
+      <c r="I32">
+        <v>0.09506172599161901</v>
+      </c>
+      <c r="J32">
+        <v>0.06880780242854384</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.6027375</v>
+      </c>
+      <c r="N32">
+        <v>3.205475</v>
+      </c>
+      <c r="O32">
+        <v>0.1782771149667683</v>
+      </c>
+      <c r="P32">
+        <v>0.1591486486285207</v>
+      </c>
+      <c r="Q32">
+        <v>12.53491622735625</v>
+      </c>
+      <c r="R32">
+        <v>50.139664909425</v>
+      </c>
+      <c r="S32">
+        <v>0.01694733025354729</v>
+      </c>
+      <c r="T32">
+        <v>0.01095066877160099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7.8209415</v>
+      </c>
+      <c r="H33">
+        <v>15.641883</v>
+      </c>
+      <c r="I33">
+        <v>0.09506172599161901</v>
+      </c>
+      <c r="J33">
+        <v>0.06880780242854384</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.330031</v>
+      </c>
+      <c r="N33">
+        <v>0.990093</v>
+      </c>
+      <c r="O33">
+        <v>0.03671030005200323</v>
+      </c>
+      <c r="P33">
+        <v>0.04915713364370582</v>
+      </c>
+      <c r="Q33">
+        <v>2.5811531441865</v>
+      </c>
+      <c r="R33">
+        <v>15.486918865119</v>
+      </c>
+      <c r="S33">
+        <v>0.003489744484613648</v>
+      </c>
+      <c r="T33">
+        <v>0.003382394339709635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7.8209415</v>
+      </c>
+      <c r="H34">
+        <v>15.641883</v>
+      </c>
+      <c r="I34">
+        <v>0.09506172599161901</v>
+      </c>
+      <c r="J34">
+        <v>0.06880780242854384</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.147963</v>
+      </c>
+      <c r="N34">
+        <v>0.443889</v>
+      </c>
+      <c r="O34">
+        <v>0.01645835126577368</v>
+      </c>
+      <c r="P34">
+        <v>0.02203864777952266</v>
+      </c>
+      <c r="Q34">
+        <v>1.1572099671645</v>
+      </c>
+      <c r="R34">
+        <v>6.943259802987</v>
+      </c>
+      <c r="S34">
+        <v>0.001564559278300794</v>
+      </c>
+      <c r="T34">
+        <v>0.001516430922205662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7.8209415</v>
+      </c>
+      <c r="H35">
+        <v>15.641883</v>
+      </c>
+      <c r="I35">
+        <v>0.09506172599161901</v>
+      </c>
+      <c r="J35">
+        <v>0.06880780242854384</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.201726</v>
+      </c>
+      <c r="N35">
+        <v>0.605178</v>
+      </c>
+      <c r="O35">
+        <v>0.02243856482660842</v>
+      </c>
+      <c r="P35">
+        <v>0.03004648636464514</v>
+      </c>
+      <c r="Q35">
+        <v>1.577687245029</v>
+      </c>
+      <c r="R35">
+        <v>9.466123470174001</v>
+      </c>
+      <c r="S35">
+        <v>0.00213304870119223</v>
+      </c>
+      <c r="T35">
+        <v>0.002067432697450439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7.8209415</v>
+      </c>
+      <c r="H36">
+        <v>15.641883</v>
+      </c>
+      <c r="I36">
+        <v>0.09506172599161901</v>
+      </c>
+      <c r="J36">
+        <v>0.06880780242854384</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.481375666666667</v>
+      </c>
+      <c r="N36">
+        <v>4.444127</v>
+      </c>
+      <c r="O36">
+        <v>0.1647776881961684</v>
+      </c>
+      <c r="P36">
+        <v>0.2206464896414795</v>
+      </c>
+      <c r="Q36">
+        <v>11.5857524285235</v>
+      </c>
+      <c r="R36">
+        <v>69.51451457114099</v>
+      </c>
+      <c r="S36">
+        <v>0.01566405144483659</v>
+      </c>
+      <c r="T36">
+        <v>0.01518220006580267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7.8209415</v>
+      </c>
+      <c r="H37">
+        <v>15.641883</v>
+      </c>
+      <c r="I37">
+        <v>0.09506172599161901</v>
+      </c>
+      <c r="J37">
+        <v>0.06880780242854384</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.226314</v>
+      </c>
+      <c r="N37">
+        <v>10.452628</v>
+      </c>
+      <c r="O37">
+        <v>0.5813379806926779</v>
+      </c>
+      <c r="P37">
+        <v>0.5189625939421262</v>
+      </c>
+      <c r="Q37">
+        <v>40.874696054631</v>
+      </c>
+      <c r="R37">
+        <v>163.498784218524</v>
+      </c>
+      <c r="S37">
+        <v>0.05526299182912845</v>
+      </c>
+      <c r="T37">
+        <v>0.03570867563177444</v>
       </c>
     </row>
   </sheetData>
